--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -30,15 +30,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星（SAMSUNG）250GB SSD固态硬盘 SATA3.0接口 860 EVO（MZ-76E250B）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序写入最大520 MB/s</t>
+    <t>商品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星（SAMSUNG）500GB SSD固态硬盘 SATA3.0接口 860 EVO（MZ-76E500B）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAAAAAAAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,7 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保修1年</t>
+    <t>三星原厂正品内存，让您更放心；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,12 +93,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,26 +397,28 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="72.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -431,9 +430,9 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>299</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
